--- a/po_analysis_by_asin/B0BRBX747V_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRBX747V_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,103 +452,103 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45404</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45411</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45418</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45432</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45439</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45446</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45460</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45467</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45481</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45488</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45495</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>30</v>
@@ -556,55 +556,55 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45502</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45509</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45516</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45523</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45544</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45551</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45558</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>30</v>
@@ -612,33 +612,137 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45565</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45593</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B25" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
         <v>10</v>
       </c>
     </row>
@@ -653,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,65 +779,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>130</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BRBX747V_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRBX747V_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,95 +524,95 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>30</v>
@@ -620,31 +620,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>10</v>
@@ -652,97 +652,57 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45564.99999999999</v>
-      </c>
-      <c r="B34" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45571.99999999999</v>
-      </c>
-      <c r="B35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45578.99999999999</v>
-      </c>
-      <c r="B36" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B37" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B38" t="n">
         <v>10</v>
       </c>
     </row>
@@ -757,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -806,52 +766,52 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>120</v>
@@ -859,25 +819,9 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45565.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45596.99999999999</v>
-      </c>
-      <c r="B14" t="n">
         <v>130</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BRBX747V_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRBX747V_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -733,7 +734,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -823,6 +824,607 @@
       </c>
       <c r="B12" t="n">
         <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-15.7018589171405</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.77969645411343</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-13.20895278813307</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.77950628249428</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-12.64463532040394</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.45090449043059</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-12.51430315899573</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.02591848595004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-13.12855618025969</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.75857029154984</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-11.2968933855103</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.89524649695689</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.497045750314603</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38.52171439705794</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.13632536973797</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.26659933845</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-9.245194303530727</v>
+      </c>
+      <c r="D10" t="n">
+        <v>39.00761187573919</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.834707140396134</v>
+      </c>
+      <c r="D11" t="n">
+        <v>52.73140462531593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.693378859312622</v>
+      </c>
+      <c r="D12" t="n">
+        <v>52.41384360992265</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.927016679810935</v>
+      </c>
+      <c r="D13" t="n">
+        <v>53.93467002973514</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.063163325605875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>52.56069052004861</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.436355506606902</v>
+      </c>
+      <c r="D15" t="n">
+        <v>54.82337616088536</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.146155829436024</v>
+      </c>
+      <c r="D16" t="n">
+        <v>55.03793225531241</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.982690293499312</v>
+      </c>
+      <c r="D17" t="n">
+        <v>54.93291547791478</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.824308519252039</v>
+      </c>
+      <c r="D18" t="n">
+        <v>55.27692724531126</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.294311411525282</v>
+      </c>
+      <c r="D19" t="n">
+        <v>56.02159406698306</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>33</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.767917980110674</v>
+      </c>
+      <c r="D20" t="n">
+        <v>57.01724091301145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>33</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.637004629599104</v>
+      </c>
+      <c r="D21" t="n">
+        <v>55.92005198199481</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>33</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.752180554492951</v>
+      </c>
+      <c r="D22" t="n">
+        <v>56.13985412538223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>34</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.29835849118405</v>
+      </c>
+      <c r="D23" t="n">
+        <v>58.43850183269878</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>34</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10.2941017853416</v>
+      </c>
+      <c r="D24" t="n">
+        <v>59.4613635527009</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.548410694912056</v>
+      </c>
+      <c r="D25" t="n">
+        <v>57.86794889961192</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>35</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12.66670674879166</v>
+      </c>
+      <c r="D26" t="n">
+        <v>58.65602764234782</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>36</v>
+      </c>
+      <c r="C27" t="n">
+        <v>11.43614150295956</v>
+      </c>
+      <c r="D27" t="n">
+        <v>61.41884509133769</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.51769889585408</v>
+      </c>
+      <c r="D28" t="n">
+        <v>59.3623643486406</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12.76458045995765</v>
+      </c>
+      <c r="D29" t="n">
+        <v>63.03166080489345</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>37</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12.8970517779563</v>
+      </c>
+      <c r="D30" t="n">
+        <v>58.13808143231788</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>37</v>
+      </c>
+      <c r="C31" t="n">
+        <v>13.28948200443731</v>
+      </c>
+      <c r="D31" t="n">
+        <v>60.61846699785233</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>37</v>
+      </c>
+      <c r="C32" t="n">
+        <v>11.66896692745604</v>
+      </c>
+      <c r="D32" t="n">
+        <v>60.82231155924421</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>38</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.80820551466769</v>
+      </c>
+      <c r="D33" t="n">
+        <v>61.5428224526169</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>38</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16.75181950481067</v>
+      </c>
+      <c r="D34" t="n">
+        <v>64.24939784214072</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>39</v>
+      </c>
+      <c r="C35" t="n">
+        <v>14.21566156510182</v>
+      </c>
+      <c r="D35" t="n">
+        <v>62.74438216235945</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>39</v>
+      </c>
+      <c r="C36" t="n">
+        <v>15.75852900086581</v>
+      </c>
+      <c r="D36" t="n">
+        <v>62.82570391331637</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>39</v>
+      </c>
+      <c r="C37" t="n">
+        <v>14.51220567197227</v>
+      </c>
+      <c r="D37" t="n">
+        <v>64.19609726887926</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+      <c r="C38" t="n">
+        <v>16.49119852921687</v>
+      </c>
+      <c r="D38" t="n">
+        <v>64.78115971878776</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>40</v>
+      </c>
+      <c r="C39" t="n">
+        <v>16.41785101161013</v>
+      </c>
+      <c r="D39" t="n">
+        <v>62.84088789469779</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>41</v>
+      </c>
+      <c r="C40" t="n">
+        <v>16.11736342752426</v>
+      </c>
+      <c r="D40" t="n">
+        <v>64.36744379836371</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>41</v>
+      </c>
+      <c r="C41" t="n">
+        <v>17.77182956333502</v>
+      </c>
+      <c r="D41" t="n">
+        <v>64.71131503915504</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BRBX747V_po_data.xlsx
+++ b/po_analysis_by_asin/B0BRBX747V_po_data.xlsx
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,16 +856,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -874,12 +864,6 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="n">
-        <v>-15.7018589171405</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.77969645411343</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -888,12 +872,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>-13.20895278813307</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.77950628249428</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -902,12 +880,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>-12.64463532040394</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.45090449043059</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -916,12 +888,6 @@
       <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C5" t="n">
-        <v>-12.51430315899573</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.02591848595004</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -930,12 +896,6 @@
       <c r="B6" t="n">
         <v>12</v>
       </c>
-      <c r="C6" t="n">
-        <v>-13.12855618025969</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.75857029154984</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -944,12 +904,6 @@
       <c r="B7" t="n">
         <v>13</v>
       </c>
-      <c r="C7" t="n">
-        <v>-11.2968933855103</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37.89524649695689</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -958,12 +912,6 @@
       <c r="B8" t="n">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
-        <v>-9.497045750314603</v>
-      </c>
-      <c r="D8" t="n">
-        <v>38.52171439705794</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -972,12 +920,6 @@
       <c r="B9" t="n">
         <v>14</v>
       </c>
-      <c r="C9" t="n">
-        <v>-12.13632536973797</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38.26659933845</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -986,12 +928,6 @@
       <c r="B10" t="n">
         <v>14</v>
       </c>
-      <c r="C10" t="n">
-        <v>-9.245194303530727</v>
-      </c>
-      <c r="D10" t="n">
-        <v>39.00761187573919</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1000,12 +936,6 @@
       <c r="B11" t="n">
         <v>28</v>
       </c>
-      <c r="C11" t="n">
-        <v>3.834707140396134</v>
-      </c>
-      <c r="D11" t="n">
-        <v>52.73140462531593</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1014,12 +944,6 @@
       <c r="B12" t="n">
         <v>29</v>
       </c>
-      <c r="C12" t="n">
-        <v>2.693378859312622</v>
-      </c>
-      <c r="D12" t="n">
-        <v>52.41384360992265</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1028,12 +952,6 @@
       <c r="B13" t="n">
         <v>29</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.927016679810935</v>
-      </c>
-      <c r="D13" t="n">
-        <v>53.93467002973514</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1042,12 +960,6 @@
       <c r="B14" t="n">
         <v>30</v>
       </c>
-      <c r="C14" t="n">
-        <v>5.063163325605875</v>
-      </c>
-      <c r="D14" t="n">
-        <v>52.56069052004861</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1056,12 +968,6 @@
       <c r="B15" t="n">
         <v>30</v>
       </c>
-      <c r="C15" t="n">
-        <v>5.436355506606902</v>
-      </c>
-      <c r="D15" t="n">
-        <v>54.82337616088536</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1070,12 +976,6 @@
       <c r="B16" t="n">
         <v>31</v>
       </c>
-      <c r="C16" t="n">
-        <v>6.146155829436024</v>
-      </c>
-      <c r="D16" t="n">
-        <v>55.03793225531241</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1084,12 +984,6 @@
       <c r="B17" t="n">
         <v>31</v>
       </c>
-      <c r="C17" t="n">
-        <v>7.982690293499312</v>
-      </c>
-      <c r="D17" t="n">
-        <v>54.93291547791478</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1098,12 +992,6 @@
       <c r="B18" t="n">
         <v>32</v>
       </c>
-      <c r="C18" t="n">
-        <v>4.824308519252039</v>
-      </c>
-      <c r="D18" t="n">
-        <v>55.27692724531126</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1112,12 +1000,6 @@
       <c r="B19" t="n">
         <v>32</v>
       </c>
-      <c r="C19" t="n">
-        <v>6.294311411525282</v>
-      </c>
-      <c r="D19" t="n">
-        <v>56.02159406698306</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1126,12 +1008,6 @@
       <c r="B20" t="n">
         <v>33</v>
       </c>
-      <c r="C20" t="n">
-        <v>9.767917980110674</v>
-      </c>
-      <c r="D20" t="n">
-        <v>57.01724091301145</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1140,12 +1016,6 @@
       <c r="B21" t="n">
         <v>33</v>
       </c>
-      <c r="C21" t="n">
-        <v>7.637004629599104</v>
-      </c>
-      <c r="D21" t="n">
-        <v>55.92005198199481</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1154,12 +1024,6 @@
       <c r="B22" t="n">
         <v>33</v>
       </c>
-      <c r="C22" t="n">
-        <v>7.752180554492951</v>
-      </c>
-      <c r="D22" t="n">
-        <v>56.13985412538223</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1168,12 +1032,6 @@
       <c r="B23" t="n">
         <v>34</v>
       </c>
-      <c r="C23" t="n">
-        <v>9.29835849118405</v>
-      </c>
-      <c r="D23" t="n">
-        <v>58.43850183269878</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1182,12 +1040,6 @@
       <c r="B24" t="n">
         <v>34</v>
       </c>
-      <c r="C24" t="n">
-        <v>10.2941017853416</v>
-      </c>
-      <c r="D24" t="n">
-        <v>59.4613635527009</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1196,12 +1048,6 @@
       <c r="B25" t="n">
         <v>34</v>
       </c>
-      <c r="C25" t="n">
-        <v>9.548410694912056</v>
-      </c>
-      <c r="D25" t="n">
-        <v>57.86794889961192</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1210,12 +1056,6 @@
       <c r="B26" t="n">
         <v>35</v>
       </c>
-      <c r="C26" t="n">
-        <v>12.66670674879166</v>
-      </c>
-      <c r="D26" t="n">
-        <v>58.65602764234782</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1224,12 +1064,6 @@
       <c r="B27" t="n">
         <v>36</v>
       </c>
-      <c r="C27" t="n">
-        <v>11.43614150295956</v>
-      </c>
-      <c r="D27" t="n">
-        <v>61.41884509133769</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1238,12 +1072,6 @@
       <c r="B28" t="n">
         <v>36</v>
       </c>
-      <c r="C28" t="n">
-        <v>10.51769889585408</v>
-      </c>
-      <c r="D28" t="n">
-        <v>59.3623643486406</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1252,12 +1080,6 @@
       <c r="B29" t="n">
         <v>36</v>
       </c>
-      <c r="C29" t="n">
-        <v>12.76458045995765</v>
-      </c>
-      <c r="D29" t="n">
-        <v>63.03166080489345</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1266,12 +1088,6 @@
       <c r="B30" t="n">
         <v>37</v>
       </c>
-      <c r="C30" t="n">
-        <v>12.8970517779563</v>
-      </c>
-      <c r="D30" t="n">
-        <v>58.13808143231788</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1280,12 +1096,6 @@
       <c r="B31" t="n">
         <v>37</v>
       </c>
-      <c r="C31" t="n">
-        <v>13.28948200443731</v>
-      </c>
-      <c r="D31" t="n">
-        <v>60.61846699785233</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1294,12 +1104,6 @@
       <c r="B32" t="n">
         <v>37</v>
       </c>
-      <c r="C32" t="n">
-        <v>11.66896692745604</v>
-      </c>
-      <c r="D32" t="n">
-        <v>60.82231155924421</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1308,12 +1112,6 @@
       <c r="B33" t="n">
         <v>38</v>
       </c>
-      <c r="C33" t="n">
-        <v>14.80820551466769</v>
-      </c>
-      <c r="D33" t="n">
-        <v>61.5428224526169</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1322,12 +1120,6 @@
       <c r="B34" t="n">
         <v>38</v>
       </c>
-      <c r="C34" t="n">
-        <v>16.75181950481067</v>
-      </c>
-      <c r="D34" t="n">
-        <v>64.24939784214072</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1336,12 +1128,6 @@
       <c r="B35" t="n">
         <v>39</v>
       </c>
-      <c r="C35" t="n">
-        <v>14.21566156510182</v>
-      </c>
-      <c r="D35" t="n">
-        <v>62.74438216235945</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1350,12 +1136,6 @@
       <c r="B36" t="n">
         <v>39</v>
       </c>
-      <c r="C36" t="n">
-        <v>15.75852900086581</v>
-      </c>
-      <c r="D36" t="n">
-        <v>62.82570391331637</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1364,12 +1144,6 @@
       <c r="B37" t="n">
         <v>39</v>
       </c>
-      <c r="C37" t="n">
-        <v>14.51220567197227</v>
-      </c>
-      <c r="D37" t="n">
-        <v>64.19609726887926</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1378,12 +1152,6 @@
       <c r="B38" t="n">
         <v>40</v>
       </c>
-      <c r="C38" t="n">
-        <v>16.49119852921687</v>
-      </c>
-      <c r="D38" t="n">
-        <v>64.78115971878776</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1392,12 +1160,6 @@
       <c r="B39" t="n">
         <v>40</v>
       </c>
-      <c r="C39" t="n">
-        <v>16.41785101161013</v>
-      </c>
-      <c r="D39" t="n">
-        <v>62.84088789469779</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1406,12 +1168,6 @@
       <c r="B40" t="n">
         <v>41</v>
       </c>
-      <c r="C40" t="n">
-        <v>16.11736342752426</v>
-      </c>
-      <c r="D40" t="n">
-        <v>64.36744379836371</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1419,12 +1175,6 @@
       </c>
       <c r="B41" t="n">
         <v>41</v>
-      </c>
-      <c r="C41" t="n">
-        <v>17.77182956333502</v>
-      </c>
-      <c r="D41" t="n">
-        <v>64.71131503915504</v>
       </c>
     </row>
   </sheetData>
